--- a/tan.xlsx
+++ b/tan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\ogawa34\falsestatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F825C3-A6E3-4C74-A6FC-82EE4741DA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0C6F42E5-060C-4251-865A-E4E3EA5F5518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="8700" yWindow="0" windowWidth="14436" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="tan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>4D</t>
   </si>
@@ -32,13 +32,255 @@
   </si>
   <si>
     <t>AA</t>
+  </si>
+  <si>
+    <t>MagicNum:BM</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Filesize</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>定数</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>F出力</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Reserved1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>reserved2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>イメージデータまでのOffset</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>F出力疑い</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウタガ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>　　↑記録から？</t>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヘッダサイズ(INFOで40)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>たぶん固定長</t>
+    <rPh sb="3" eb="6">
+      <t>コテイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヘッダサイズ続き</t>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>今回は定数</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>圧縮方式</t>
+    <rPh sb="0" eb="4">
+      <t>アッシュクホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>続き(非)</t>
+    <rPh sb="0" eb="1">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>死んだ色深度的な</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>色深度</t>
+    <rPh sb="0" eb="3">
+      <t>イロシンド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>バイト数or非圧縮なら0</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒアッシュク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>40or0?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>bpm(hor(</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>bpm(axi)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>色数(2^n)</t>
+    <rPh sb="0" eb="2">
+      <t>イロカズ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>色数続き</t>
+    <rPh sb="0" eb="2">
+      <t>イロカズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>重要色の数(0はすべて</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1G</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1R</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1Res</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2G</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2R</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2Res</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ユーザ定義</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +440,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +637,74 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6699FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -495,6 +819,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,9 +1006,132 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -675,6 +1180,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6699"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF6699FF"/>
+      <color rgb="FF9966FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -983,407 +1496,715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.296875" style="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1">
+    <row r="1" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="14">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14">
+        <v>5</v>
+      </c>
+      <c r="H1" s="14">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14">
+        <v>8</v>
+      </c>
+      <c r="K1" s="14">
+        <v>9</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
         <v>28</v>
       </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="36"/>
+      <c r="N6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14"/>
+      <c r="B9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <v>30</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0</v>
+      </c>
+      <c r="J11" s="35">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33">
+        <v>37</v>
+      </c>
+      <c r="M11" s="34">
+        <v>50</v>
+      </c>
+      <c r="N11" s="35">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>37</v>
-      </c>
-      <c r="L4">
+      <c r="M12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="14">
         <v>50</v>
       </c>
-      <c r="M4">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>55</v>
       </c>
-      <c r="P4">
+      <c r="I17" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="M17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
         <v>55</v>
       </c>
-      <c r="H5">
+      <c r="Q17" s="1">
         <v>55</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="14">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
         <v>55</v>
       </c>
-      <c r="P5">
+      <c r="I18" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
         <v>55</v>
       </c>
-      <c r="H6">
+      <c r="Q18" s="1">
         <v>55</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>55</v>
       </c>
-      <c r="P6">
+      <c r="I19" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="M19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>55</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>55</v>
-      </c>
-      <c r="P7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>55</v>
-      </c>
-      <c r="H8">
-        <v>55</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A21" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="14"/>
+      <c r="B23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+  </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
